--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-859351.3238805484</v>
+        <v>-862248.7521381858</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.21008304703233</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>18.21008304703233</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="G2" t="n">
-        <v>18.21008304703233</v>
+        <v>16.03944114782503</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.03944114782607</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>16.03944114782503</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>18.21008304703233</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18.21008304703233</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.21008304703233</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>16.03944114782607</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>18.21008304703115</v>
       </c>
     </row>
     <row r="4">
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16.03944114782608</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.21008304703233</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>18.21008304703233</v>
+        <v>16.03944114782503</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>18.21008304703233</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>44.00343544142157</v>
       </c>
       <c r="F5" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="G5" t="n">
-        <v>44.00343544142157</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="H5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,52 +981,52 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>47.15831191777808</v>
+      </c>
+      <c r="S6" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="F6" t="n">
-        <v>43.85944218949135</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>49.79500702712463</v>
-      </c>
-      <c r="I6" t="n">
-        <v>49.79500702712463</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>46.49613729883792</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="D7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1.096651889078839</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.23619181829162</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="S7" t="n">
-        <v>24.65546709791185</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>55.72339490806528</v>
       </c>
       <c r="G8" t="n">
         <v>13.38870434448781</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>48.84734916635386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>112.1126601249237</v>
+        <v>8.037790645995708</v>
       </c>
       <c r="E9" t="n">
         <v>112.1126601249237</v>
@@ -1224,13 +1224,13 @@
         <v>112.1126601249237</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>54.13711731454486</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>36.57392307749219</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F10" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="G10" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>51.82194179032387</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>51.82194179032386</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>144.6145277840854</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1427,16 +1427,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>43.83162758969962</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>273.1222025221963</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>189.7408822059272</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>390.1663503618225</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.592917841534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>208.1781553646115</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389945</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9688673339484</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>87.89778431512082</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853821</v>
+        <v>12.76005920853824</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>124.8757279762148</v>
+        <v>124.8757279762149</v>
       </c>
       <c r="T15" t="n">
         <v>190.0074582735027</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.0280959284414</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8783163942143</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396096</v>
+        <v>82.30038209396101</v>
       </c>
       <c r="S16" t="n">
-        <v>187.1986443782762</v>
+        <v>174.5878782848977</v>
       </c>
       <c r="T16" t="n">
         <v>218.9187567628735</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.662689418795</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1895,22 +1895,22 @@
         <v>60.32014642295174</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189007</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
         <v>135.6366187464139</v>
@@ -2008,7 +2008,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
         <v>113.8108456707173</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221744</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112668</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187938</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684692</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.320167720048</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894977</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947561</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295189</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V20" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W20" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X20" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262553</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189007</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464141</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659972</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510284</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442999</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453028</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221591</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612654</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716143</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843745</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368234</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2482,7 +2482,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
         <v>113.8108456707173</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.823760294356</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
         <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221579</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
         <v>333.6626894187937</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3044,7 +3044,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295183</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3187,25 +3187,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943555</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
         <v>186.4872700401421</v>
@@ -3250,7 +3250,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998809</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D35" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295161</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139452999</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221565</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247505</v>
       </c>
       <c r="H38" t="n">
         <v>255.2416659947559</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453012</v>
+        <v>54.5262913945301</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221574</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3715,13 +3715,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368232</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3901,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453017</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
         <v>254.5831063612652</v>
@@ -3961,10 +3961,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.24485320342387</v>
+        <v>54.44630890829517</v>
       </c>
       <c r="C2" t="n">
-        <v>38.24485320342387</v>
+        <v>54.44630890829517</v>
       </c>
       <c r="D2" t="n">
-        <v>38.24485320342387</v>
+        <v>54.44630890829517</v>
       </c>
       <c r="E2" t="n">
-        <v>38.24485320342387</v>
+        <v>54.44630890829517</v>
       </c>
       <c r="F2" t="n">
-        <v>19.85082992359323</v>
+        <v>36.05228562846571</v>
       </c>
       <c r="G2" t="n">
-        <v>1.456806643762587</v>
+        <v>19.85082992359195</v>
       </c>
       <c r="H2" t="n">
-        <v>1.456806643762587</v>
+        <v>19.85082992359195</v>
       </c>
       <c r="I2" t="n">
-        <v>1.456806643762587</v>
+        <v>1.456806643762492</v>
       </c>
       <c r="J2" t="n">
-        <v>1.456806643762587</v>
+        <v>1.456806643762492</v>
       </c>
       <c r="K2" t="n">
-        <v>1.456806643762587</v>
+        <v>1.456806643762492</v>
       </c>
       <c r="L2" t="n">
-        <v>18.75638553844331</v>
+        <v>1.456806643762492</v>
       </c>
       <c r="M2" t="n">
-        <v>36.78436775500532</v>
+        <v>19.48478886032333</v>
       </c>
       <c r="N2" t="n">
-        <v>54.81234997156733</v>
+        <v>37.51277107688418</v>
       </c>
       <c r="O2" t="n">
-        <v>72.84033218812934</v>
+        <v>54.81234997156378</v>
       </c>
       <c r="P2" t="n">
-        <v>72.84033218812934</v>
+        <v>72.84033218812462</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.84033218812934</v>
+        <v>72.84033218812462</v>
       </c>
       <c r="R2" t="n">
-        <v>72.84033218812934</v>
+        <v>72.84033218812462</v>
       </c>
       <c r="S2" t="n">
-        <v>72.84033218812934</v>
+        <v>72.84033218812462</v>
       </c>
       <c r="T2" t="n">
-        <v>72.84033218812934</v>
+        <v>72.84033218812462</v>
       </c>
       <c r="U2" t="n">
-        <v>72.84033218812934</v>
+        <v>72.84033218812462</v>
       </c>
       <c r="V2" t="n">
-        <v>72.84033218812934</v>
+        <v>72.84033218812462</v>
       </c>
       <c r="W2" t="n">
-        <v>56.63887648325451</v>
+        <v>72.84033218812462</v>
       </c>
       <c r="X2" t="n">
-        <v>56.63887648325451</v>
+        <v>54.44630890829517</v>
       </c>
       <c r="Y2" t="n">
-        <v>56.63887648325451</v>
+        <v>54.44630890829517</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.24485320342387</v>
+        <v>17.65826234863626</v>
       </c>
       <c r="C3" t="n">
-        <v>38.24485320342387</v>
+        <v>17.65826234863626</v>
       </c>
       <c r="D3" t="n">
-        <v>38.24485320342387</v>
+        <v>17.65826234863626</v>
       </c>
       <c r="E3" t="n">
-        <v>38.24485320342387</v>
+        <v>1.456806643762492</v>
       </c>
       <c r="F3" t="n">
-        <v>38.24485320342387</v>
+        <v>1.456806643762492</v>
       </c>
       <c r="G3" t="n">
-        <v>38.24485320342387</v>
+        <v>1.456806643762492</v>
       </c>
       <c r="H3" t="n">
-        <v>19.85082992359323</v>
+        <v>1.456806643762492</v>
       </c>
       <c r="I3" t="n">
-        <v>1.456806643762587</v>
+        <v>1.456806643762492</v>
       </c>
       <c r="J3" t="n">
-        <v>1.456806643762587</v>
+        <v>1.456806643762492</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762587</v>
+        <v>1.456806643762492</v>
       </c>
       <c r="L3" t="n">
-        <v>19.4847888603246</v>
+        <v>19.48478886032333</v>
       </c>
       <c r="M3" t="n">
-        <v>37.51277107688661</v>
+        <v>37.51277107688418</v>
       </c>
       <c r="N3" t="n">
-        <v>55.54075329344862</v>
+        <v>44.26685867884829</v>
       </c>
       <c r="O3" t="n">
-        <v>62.29484089541318</v>
+        <v>62.29484089540914</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218812934</v>
+        <v>72.84033218812462</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.84033218812934</v>
+        <v>72.84033218812462</v>
       </c>
       <c r="R3" t="n">
-        <v>54.4463089082987</v>
+        <v>54.44630890829517</v>
       </c>
       <c r="S3" t="n">
-        <v>54.4463089082987</v>
+        <v>54.44630890829517</v>
       </c>
       <c r="T3" t="n">
-        <v>54.4463089082987</v>
+        <v>54.44630890829517</v>
       </c>
       <c r="U3" t="n">
-        <v>38.24485320342387</v>
+        <v>54.44630890829517</v>
       </c>
       <c r="V3" t="n">
-        <v>38.24485320342387</v>
+        <v>54.44630890829517</v>
       </c>
       <c r="W3" t="n">
-        <v>38.24485320342387</v>
+        <v>54.44630890829517</v>
       </c>
       <c r="X3" t="n">
-        <v>38.24485320342387</v>
+        <v>36.05228562846571</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.24485320342387</v>
+        <v>17.65826234863626</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.65826234863741</v>
+        <v>19.85082992359195</v>
       </c>
       <c r="C4" t="n">
-        <v>17.65826234863741</v>
+        <v>19.85082992359195</v>
       </c>
       <c r="D4" t="n">
-        <v>17.65826234863741</v>
+        <v>19.85082992359195</v>
       </c>
       <c r="E4" t="n">
-        <v>17.65826234863741</v>
+        <v>19.85082992359195</v>
       </c>
       <c r="F4" t="n">
-        <v>17.65826234863741</v>
+        <v>1.456806643762492</v>
       </c>
       <c r="G4" t="n">
-        <v>17.65826234863741</v>
+        <v>1.456806643762492</v>
       </c>
       <c r="H4" t="n">
-        <v>1.456806643762587</v>
+        <v>1.456806643762492</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456806643762587</v>
+        <v>1.456806643762492</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762587</v>
+        <v>1.456806643762492</v>
       </c>
       <c r="K4" t="n">
-        <v>1.456806643762587</v>
+        <v>18.75638553844209</v>
       </c>
       <c r="L4" t="n">
-        <v>1.456806643762587</v>
+        <v>36.78436775500293</v>
       </c>
       <c r="M4" t="n">
-        <v>19.4847888603246</v>
+        <v>54.81234997156378</v>
       </c>
       <c r="N4" t="n">
-        <v>37.51277107688661</v>
+        <v>72.84033218812462</v>
       </c>
       <c r="O4" t="n">
-        <v>54.81234997156733</v>
+        <v>72.84033218812462</v>
       </c>
       <c r="P4" t="n">
-        <v>72.84033218812934</v>
+        <v>72.84033218812462</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.4463089082987</v>
+        <v>72.84033218812462</v>
       </c>
       <c r="R4" t="n">
-        <v>54.4463089082987</v>
+        <v>72.84033218812462</v>
       </c>
       <c r="S4" t="n">
-        <v>54.4463089082987</v>
+        <v>72.84033218812462</v>
       </c>
       <c r="T4" t="n">
-        <v>36.05228562846806</v>
+        <v>56.63887648325085</v>
       </c>
       <c r="U4" t="n">
-        <v>36.05228562846806</v>
+        <v>38.2448532034214</v>
       </c>
       <c r="V4" t="n">
-        <v>36.05228562846806</v>
+        <v>38.2448532034214</v>
       </c>
       <c r="W4" t="n">
-        <v>17.65826234863741</v>
+        <v>38.2448532034214</v>
       </c>
       <c r="X4" t="n">
-        <v>17.65826234863741</v>
+        <v>19.85082992359195</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.65826234863741</v>
+        <v>19.85082992359195</v>
       </c>
     </row>
     <row r="5">
@@ -4550,13 +4550,13 @@
         <v>149.0274889416355</v>
       </c>
       <c r="E5" t="n">
-        <v>149.0274889416355</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="F5" t="n">
-        <v>98.72950204554996</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="G5" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H5" t="n">
         <v>3.98360056216997</v>
@@ -4568,16 +4568,16 @@
         <v>3.98360056216997</v>
       </c>
       <c r="K5" t="n">
-        <v>3.98360056216997</v>
+        <v>46.41914195758014</v>
       </c>
       <c r="L5" t="n">
-        <v>51.28885723793834</v>
+        <v>62.2614493974929</v>
       </c>
       <c r="M5" t="n">
-        <v>100.5859141947917</v>
+        <v>111.5585063543463</v>
       </c>
       <c r="N5" t="n">
-        <v>149.8829711516451</v>
+        <v>160.8555633111997</v>
       </c>
       <c r="O5" t="n">
         <v>199.1800281084985</v>
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199.1800281084985</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="C6" t="n">
-        <v>199.1800281084985</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="D6" t="n">
-        <v>199.1800281084985</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="E6" t="n">
-        <v>148.882041212413</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="F6" t="n">
-        <v>104.5795743543409</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G6" t="n">
-        <v>104.5795743543409</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H6" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I6" t="n">
         <v>3.98360056216997</v>
@@ -4650,10 +4650,10 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L6" t="n">
-        <v>22.54896088111074</v>
+        <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N6" t="n">
         <v>121.1430747948175</v>
@@ -4668,28 +4668,28 @@
         <v>199.1800281084985</v>
       </c>
       <c r="R6" t="n">
-        <v>199.1800281084985</v>
+        <v>151.5453696056924</v>
       </c>
       <c r="S6" t="n">
-        <v>199.1800281084985</v>
+        <v>101.2473827096069</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1800281084985</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="U6" t="n">
-        <v>199.1800281084985</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="V6" t="n">
-        <v>199.1800281084985</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="W6" t="n">
-        <v>199.1800281084985</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="X6" t="n">
-        <v>199.1800281084985</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.1800281084985</v>
+        <v>54.28158745825545</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.47632513543981</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="C7" t="n">
-        <v>97.47632513543981</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="D7" t="n">
-        <v>47.17833823935432</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="E7" t="n">
-        <v>47.17833823935432</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="F7" t="n">
-        <v>47.17833823935432</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="G7" t="n">
         <v>47.17833823935432</v>
@@ -4726,16 +4726,16 @@
         <v>3.98360056216997</v>
       </c>
       <c r="K7" t="n">
-        <v>3.98360056216997</v>
+        <v>51.28885723793834</v>
       </c>
       <c r="L7" t="n">
-        <v>51.28885723793834</v>
+        <v>100.5859141947917</v>
       </c>
       <c r="M7" t="n">
-        <v>100.5859141947917</v>
+        <v>149.8829711516451</v>
       </c>
       <c r="N7" t="n">
-        <v>149.8829711516451</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="O7" t="n">
         <v>199.1800281084985</v>
@@ -4744,31 +4744,31 @@
         <v>199.1800281084985</v>
       </c>
       <c r="Q7" t="n">
-        <v>172.6788242516383</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="R7" t="n">
-        <v>122.3808373555528</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="S7" t="n">
-        <v>97.47632513543981</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="T7" t="n">
-        <v>97.47632513543981</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="U7" t="n">
-        <v>97.47632513543981</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="V7" t="n">
-        <v>97.47632513543981</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="W7" t="n">
-        <v>97.47632513543981</v>
+        <v>148.882041212413</v>
       </c>
       <c r="X7" t="n">
-        <v>97.47632513543981</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="Y7" t="n">
-        <v>97.47632513543981</v>
+        <v>98.58405431632752</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142.6835685788049</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="C8" t="n">
-        <v>142.6835685788049</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="D8" t="n">
-        <v>142.6835685788049</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="E8" t="n">
-        <v>142.6835685788049</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="F8" t="n">
         <v>135.7380678296014</v>
@@ -4808,7 +4808,7 @@
         <v>32.11753523687545</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773399</v>
+        <v>97.73708609773408</v>
       </c>
       <c r="M8" t="n">
         <v>202.4209174083929</v>
@@ -4838,16 +4838,16 @@
         <v>418.5145477870889</v>
       </c>
       <c r="V8" t="n">
-        <v>418.5145477870889</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="W8" t="n">
         <v>305.2694365497923</v>
       </c>
       <c r="X8" t="n">
-        <v>192.0243253124956</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="Y8" t="n">
-        <v>142.6835685788049</v>
+        <v>305.2694365497923</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="C9" t="n">
-        <v>348.7043465218837</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="D9" t="n">
-        <v>235.4592352845871</v>
+        <v>403.3883034052624</v>
       </c>
       <c r="E9" t="n">
-        <v>122.2141240472905</v>
+        <v>290.1431921679658</v>
       </c>
       <c r="F9" t="n">
-        <v>8.969012809993892</v>
+        <v>176.8980809306692</v>
       </c>
       <c r="G9" t="n">
-        <v>8.969012809993892</v>
+        <v>63.65296969337254</v>
       </c>
       <c r="H9" t="n">
-        <v>8.969012809993892</v>
+        <v>63.65296969337254</v>
       </c>
       <c r="I9" t="n">
         <v>8.969012809993892</v>
@@ -4890,7 +4890,7 @@
         <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>176.439439640395</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
         <v>287.4309731640694</v>
@@ -4905,28 +4905,28 @@
         <v>448.4506404996946</v>
       </c>
       <c r="R9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="S9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="T9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="U9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="V9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="W9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="X9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="Y9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.4474417764945</v>
+        <v>434.037948761593</v>
       </c>
       <c r="C10" t="n">
-        <v>268.4474417764945</v>
+        <v>434.037948761593</v>
       </c>
       <c r="D10" t="n">
-        <v>268.4474417764945</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="E10" t="n">
-        <v>268.4474417764945</v>
+        <v>207.5477262869998</v>
       </c>
       <c r="F10" t="n">
-        <v>155.2023305391979</v>
+        <v>94.30261504970319</v>
       </c>
       <c r="G10" t="n">
-        <v>41.9572193019013</v>
+        <v>94.30261504970319</v>
       </c>
       <c r="H10" t="n">
         <v>41.9572193019013</v>
@@ -4963,16 +4963,16 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K10" t="n">
-        <v>85.67486684193852</v>
+        <v>15.36860208584616</v>
       </c>
       <c r="L10" t="n">
-        <v>196.6664003656129</v>
+        <v>15.36860208584616</v>
       </c>
       <c r="M10" t="n">
-        <v>307.6579338892873</v>
+        <v>126.3601356095206</v>
       </c>
       <c r="N10" t="n">
-        <v>348.3432026568694</v>
+        <v>237.351669133195</v>
       </c>
       <c r="O10" t="n">
         <v>348.3432026568694</v>
@@ -4999,13 +4999,13 @@
         <v>434.037948761593</v>
       </c>
       <c r="W10" t="n">
-        <v>320.7928375242964</v>
+        <v>434.037948761593</v>
       </c>
       <c r="X10" t="n">
-        <v>268.4474417764945</v>
+        <v>434.037948761593</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.4474417764945</v>
+        <v>434.037948761593</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1267.635416552713</v>
+        <v>1736.589769957182</v>
       </c>
       <c r="C11" t="n">
-        <v>1267.635416552713</v>
+        <v>1367.627253016771</v>
       </c>
       <c r="D11" t="n">
-        <v>909.3697179459625</v>
+        <v>1009.361554410021</v>
       </c>
       <c r="E11" t="n">
-        <v>523.5814653477182</v>
+        <v>623.5733018117763</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>212.5873970221688</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>212.5873970221688</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
@@ -5063,28 +5063,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794326</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450755</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180641</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919561</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="Y11" t="n">
-        <v>1654.235256616834</v>
+        <v>2123.189610021303</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064599</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,25 +5133,25 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.2880032601528</v>
+        <v>362.8459426266615</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3518203322459</v>
+        <v>362.8459426266615</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2351809199101</v>
+        <v>212.7293032143258</v>
       </c>
       <c r="E13" t="n">
-        <v>527.322087337517</v>
+        <v>212.7293032143258</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396067</v>
+        <v>212.7293032143258</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143258</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K13" t="n">
         <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760406</v>
+        <v>976.3387758760401</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U13" t="n">
-        <v>1651.413535439809</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V13" t="n">
-        <v>1396.729047233922</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W13" t="n">
-        <v>1396.729047233923</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X13" t="n">
-        <v>1396.729047233923</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.936468090393</v>
+        <v>362.8459426266615</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2025.587261336146</v>
+        <v>2223.554215013521</v>
       </c>
       <c r="C14" t="n">
-        <v>1656.624744395734</v>
+        <v>1854.591698073109</v>
       </c>
       <c r="D14" t="n">
-        <v>1298.359045788984</v>
+        <v>1496.325999466359</v>
       </c>
       <c r="E14" t="n">
-        <v>912.5707931907393</v>
+        <v>1110.537746868114</v>
       </c>
       <c r="F14" t="n">
-        <v>518.4633685828378</v>
+        <v>699.5518420785066</v>
       </c>
       <c r="G14" t="n">
-        <v>103.7230475307834</v>
+        <v>284.8115210264521</v>
       </c>
       <c r="H14" t="n">
-        <v>103.7230475307834</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169301</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="J14" t="n">
         <v>291.0377674773526</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720055991</v>
+        <v>666.2644720055987</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.6681406457</v>
+        <v>1168.668140645698</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275287</v>
+        <v>1759.358462275285</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.220579235392</v>
+        <v>2364.22057923539</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163075</v>
+        <v>2922.039463163073</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140404</v>
+        <v>3363.623974140402</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049514</v>
+        <v>3647.062805049512</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.52780058465</v>
+        <v>3726.527800584648</v>
       </c>
       <c r="S14" t="n">
-        <v>3726.52780058465</v>
+        <v>3726.527800584648</v>
       </c>
       <c r="T14" t="n">
-        <v>3726.52780058465</v>
+        <v>3726.527800584648</v>
       </c>
       <c r="U14" t="n">
-        <v>3473.023894186722</v>
+        <v>3726.527800584648</v>
       </c>
       <c r="V14" t="n">
-        <v>3141.961006843152</v>
+        <v>3726.527800584648</v>
       </c>
       <c r="W14" t="n">
-        <v>2789.192351573037</v>
+        <v>3373.759145314533</v>
       </c>
       <c r="X14" t="n">
-        <v>2415.726593311957</v>
+        <v>3000.293387053453</v>
       </c>
       <c r="Y14" t="n">
-        <v>2025.587261336146</v>
+        <v>2610.154055077643</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>458.9250988334825</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3905408603675</v>
+        <v>312.3905408603674</v>
       </c>
       <c r="G15" t="n">
         <v>176.2051454295304</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41950470718615</v>
+        <v>87.41950470718612</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169301</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="J15" t="n">
-        <v>170.1112445399389</v>
+        <v>184.6629209807616</v>
       </c>
       <c r="K15" t="n">
-        <v>170.1112445399389</v>
+        <v>451.0514990628283</v>
       </c>
       <c r="L15" t="n">
-        <v>574.6261033188192</v>
+        <v>855.5663578417085</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.032731952775</v>
+        <v>1055.360493234719</v>
       </c>
       <c r="N15" t="n">
-        <v>1584.85407673636</v>
+        <v>1574.181838018303</v>
       </c>
       <c r="O15" t="n">
-        <v>2037.254452037593</v>
+        <v>2026.582213319536</v>
       </c>
       <c r="P15" t="n">
-        <v>2381.012571295174</v>
+        <v>2370.340332577117</v>
       </c>
       <c r="Q15" t="n">
-        <v>2560.886573990975</v>
+        <v>2550.214335272918</v>
       </c>
       <c r="R15" t="n">
         <v>2560.886573990975</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>242.0844109553439</v>
+        <v>538.2697800199034</v>
       </c>
       <c r="C16" t="n">
-        <v>242.0844109553439</v>
+        <v>369.3335970919965</v>
       </c>
       <c r="D16" t="n">
-        <v>242.0844109553439</v>
+        <v>369.3335970919965</v>
       </c>
       <c r="E16" t="n">
-        <v>242.0844109553439</v>
+        <v>221.4205035096033</v>
       </c>
       <c r="F16" t="n">
-        <v>242.0844109553439</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="G16" t="n">
-        <v>74.53055601169301</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="H16" t="n">
-        <v>74.53055601169301</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169301</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525472</v>
+        <v>129.9765865525471</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923167</v>
+        <v>350.928283792317</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553101</v>
+        <v>689.1968198553102</v>
       </c>
       <c r="M16" t="n">
-        <v>1056.242685479733</v>
+        <v>1056.242685479732</v>
       </c>
       <c r="N16" t="n">
         <v>1419.995637229307</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776858</v>
+        <v>1739.964067776857</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135873</v>
+        <v>1990.231654135872</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389594</v>
+        <v>2080.068878389593</v>
       </c>
       <c r="R16" t="n">
-        <v>1996.937179304785</v>
+        <v>1996.937179304784</v>
       </c>
       <c r="S16" t="n">
-        <v>1807.847639528749</v>
+        <v>1820.585787097817</v>
       </c>
       <c r="T16" t="n">
-        <v>1586.717582192513</v>
+        <v>1599.455729761581</v>
       </c>
       <c r="U16" t="n">
-        <v>1297.6228415917</v>
+        <v>1310.360989160768</v>
       </c>
       <c r="V16" t="n">
-        <v>1042.938353385813</v>
+        <v>1055.676500954881</v>
       </c>
       <c r="W16" t="n">
-        <v>753.5211833488523</v>
+        <v>766.2593309179207</v>
       </c>
       <c r="X16" t="n">
-        <v>525.531632450835</v>
+        <v>538.2697800199034</v>
       </c>
       <c r="Y16" t="n">
-        <v>304.7390533073049</v>
+        <v>538.2697800199034</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796684</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K17" t="n">
         <v>766.6831886951445</v>
@@ -5525,40 +5525,40 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835861</v>
       </c>
       <c r="K18" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334507</v>
       </c>
       <c r="L18" t="n">
-        <v>841.820087919308</v>
+        <v>535.3638672866897</v>
       </c>
       <c r="M18" t="n">
-        <v>1390.738552529597</v>
+        <v>1084.282331896979</v>
       </c>
       <c r="N18" t="n">
-        <v>1968.593900456</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O18" t="n">
-        <v>2474.99885540425</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P18" t="n">
         <v>2555.644190323788</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502091</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477709</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609038</v>
+        <v>617.6685920609053</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039793</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315376</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749435</v>
+        <v>251.2943450749449</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042787</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902791</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E20" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796678</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162841</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J20" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951441</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755814</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.09100792455</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382062</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177178</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835861</v>
       </c>
       <c r="K21" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334507</v>
       </c>
       <c r="L21" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277783</v>
       </c>
       <c r="M21" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781583</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502089</v>
+        <v>872.8624197502114</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477706</v>
+        <v>735.855734147773</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609057</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039803</v>
+        <v>501.684995803981</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5944,16 +5944,16 @@
         <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796679</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162839</v>
@@ -5987,25 +5987,25 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076848</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q23" t="n">
         <v>4142.907144767229</v>
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I24" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>850.66941185518</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781582</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6133,13 +6133,13 @@
         <v>501.6849958039804</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511625</v>
@@ -6148,16 +6148,16 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O25" t="n">
         <v>2087.878830313936</v>
@@ -6175,7 +6175,7 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
         <v>1887.747186237502</v>
@@ -6203,7 +6203,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
         <v>1458.093420216582</v>
@@ -6218,22 +6218,22 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
         <v>2681.771598889755</v>
@@ -6245,31 +6245,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6297,13 +6297,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J27" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
         <v>519.5985603334505</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477725</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609054</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
         <v>459.5287020443612</v>
@@ -6418,16 +6418,16 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6446,31 +6446,31 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
         <v>2681.771598889755</v>
@@ -6482,31 +6482,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L30" t="n">
-        <v>535.3638672866908</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
         <v>2555.644190323788</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039803</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L31" t="n">
         <v>857.3827676902788</v>
@@ -6643,25 +6643,25 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
         <v>1022.581387254981</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E32" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G32" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233288</v>
@@ -6719,31 +6719,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
         <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6771,13 +6771,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
         <v>519.5985603334505</v>
@@ -6832,64 +6832,64 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609052</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902804</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354975</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357084</v>
@@ -6901,7 +6901,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162846</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511697</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6950,37 +6950,37 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="36">
@@ -7008,13 +7008,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177173</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J36" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
         <v>519.5985603334505</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502099</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609045</v>
+        <v>617.668592060904</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315384</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J37" t="n">
-        <v>185.174278704279</v>
+        <v>185.174278704275</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443618</v>
+        <v>459.5287020443579</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902793</v>
+        <v>857.3827676902756</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.55207904089</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.71920135497</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313933</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028686</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796682</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233288</v>
@@ -7193,31 +7193,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="39">
@@ -7245,13 +7245,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J39" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
         <v>519.5985603334505</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C40" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354973</v>
@@ -7351,10 +7351,10 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S40" t="n">
         <v>2333.272818966196</v>
@@ -7375,7 +7375,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="41">
@@ -7397,13 +7397,13 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796682</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162844</v>
+        <v>342.8002736162846</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511675</v>
+        <v>84.98040897511697</v>
       </c>
       <c r="I41" t="n">
         <v>84.98040897511625</v>
@@ -7412,7 +7412,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7421,10 +7421,10 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
         <v>3813.656640612704</v>
@@ -7488,28 +7488,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L42" t="n">
-        <v>538.7790385694437</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M42" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C43" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609049</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E43" t="n">
         <v>501.6849958039804</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897932</v>
@@ -7570,16 +7570,16 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O43" t="n">
         <v>2087.878830313936</v>
@@ -7588,10 +7588,10 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
         <v>2333.272818966196</v>
@@ -7606,7 +7606,7 @@
         <v>1664.992195357084</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
         <v>1211.444469073043</v>
@@ -7625,7 +7625,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
         <v>1458.093420216582</v>
@@ -7634,7 +7634,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
@@ -7646,22 +7646,22 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612704</v>
@@ -7679,16 +7679,16 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y44" t="n">
         <v>2476.13298385146</v>
@@ -7731,22 +7731,22 @@
         <v>519.5985603334505</v>
       </c>
       <c r="L45" t="n">
-        <v>519.5985603334505</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M45" t="n">
-        <v>1068.51702494374</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N45" t="n">
-        <v>1646.372372870142</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107679</v>
+        <v>60.90377530107735</v>
       </c>
       <c r="K2" t="n">
-        <v>40.0279429699618</v>
+        <v>40.02794296996265</v>
       </c>
       <c r="L2" t="n">
-        <v>29.85801795570226</v>
+        <v>12.3836958398642</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.805846119713522</v>
+        <v>9.070085188520281</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855296</v>
+        <v>45.88675708558506</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.44336957621789</v>
+        <v>69.4433695762186</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>55.28179755587561</v>
+        <v>55.28179755587594</v>
       </c>
       <c r="K3" t="n">
-        <v>15.54112977924294</v>
+        <v>15.54112977924351</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.30284318956994</v>
+        <v>43.30284318957038</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>55.24219515018272</v>
+        <v>72.71651726602104</v>
       </c>
       <c r="L4" t="n">
-        <v>40.48311410323767</v>
+        <v>58.69319715026927</v>
       </c>
       <c r="M4" t="n">
-        <v>57.60265575364044</v>
+        <v>57.60265575363974</v>
       </c>
       <c r="N4" t="n">
-        <v>48.72909356691361</v>
+        <v>48.72909356691289</v>
       </c>
       <c r="O4" t="n">
-        <v>66.18183960990069</v>
+        <v>48.707517494062</v>
       </c>
       <c r="P4" t="n">
-        <v>79.14229504431988</v>
+        <v>60.93221199728791</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8216,10 +8216,10 @@
         <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
-        <v>17.14684397594775</v>
+        <v>60.01102720363479</v>
       </c>
       <c r="L5" t="n">
-        <v>31.78075680389457</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>11.08342642379245</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>1.810057396252972</v>
@@ -8374,10 +8374,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>45.86784710562524</v>
+        <v>93.65093465690643</v>
       </c>
       <c r="L7" t="n">
-        <v>76.27026363255541</v>
+        <v>78.28218310839884</v>
       </c>
       <c r="M7" t="n">
         <v>76.53954504419404</v>
@@ -8386,7 +8386,7 @@
         <v>67.96672485263689</v>
       </c>
       <c r="O7" t="n">
-        <v>87.09780125070267</v>
+        <v>37.30279422357805</v>
       </c>
       <c r="P7" t="n">
         <v>51.173501012562</v>
@@ -8611,19 +8611,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>35.7273372980946</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3514840274684</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M10" t="n">
         <v>116.4537900083357</v>
       </c>
       <c r="N10" t="n">
-        <v>37.39724374155968</v>
+        <v>108.4136727881176</v>
       </c>
       <c r="O10" t="n">
-        <v>17.10165812996878</v>
+        <v>129.2143182548924</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-7.65473404769344e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-1.522985320001572e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>149.9932366032351</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292586</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.406311066354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>13.08963568341654</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>28.8437711461676</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>16.70969537988896</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>291.2403613834999</v>
+        <v>83.06220601888845</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>28.90056660389953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740602</v>
+        <v>101.6950537740603</v>
       </c>
       <c r="T14" t="n">
         <v>202.4786139429426</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9688673339484</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>117.8038842534959</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
         <v>143.4436781526118</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434401</v>
+        <v>91.91693778434404</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>12.61076609337852</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.294324647460598e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.238049662788398e-12</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2.785327524179593e-12</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-2.700062395888381e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="C2" t="n">
         <v>246312.530959285</v>
@@ -26320,7 +26320,7 @@
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>204598.2593825524</v>
+        <v>204598.2593825523</v>
       </c>
       <c r="F2" t="n">
         <v>215636.9832839364</v>
@@ -26332,25 +26332,25 @@
         <v>246312.530959285</v>
       </c>
       <c r="I2" t="n">
-        <v>246312.5309592853</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="J2" t="n">
         <v>246312.5309592851</v>
       </c>
       <c r="K2" t="n">
+        <v>246312.5309592851</v>
+      </c>
+      <c r="L2" t="n">
+        <v>246312.530959285</v>
+      </c>
+      <c r="M2" t="n">
         <v>246312.5309592852</v>
       </c>
-      <c r="L2" t="n">
-        <v>246312.5309592853</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>246312.5309592849</v>
+      </c>
+      <c r="O2" t="n">
         <v>246312.530959285</v>
-      </c>
-      <c r="N2" t="n">
-        <v>246312.530959285</v>
-      </c>
-      <c r="O2" t="n">
-        <v>246312.5309592851</v>
       </c>
       <c r="P2" t="n">
         <v>246312.5309592853</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.5970321833</v>
+        <v>345405.5970321813</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.6313487643</v>
+        <v>50948.63134876618</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429537</v>
+        <v>707780.8576429542</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654319</v>
+        <v>93369.88484654218</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975334</v>
+        <v>143964.0818975346</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.558968757729</v>
+        <v>4764.558968757469</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.948714908393</v>
+        <v>8128.948714908754</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.1990219462</v>
+        <v>41060.19902194619</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383016</v>
+        <v>179249.6449383019</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613166</v>
+        <v>24549.15438613133</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875952</v>
+        <v>31434.59456875979</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348159.5487171864</v>
+        <v>348159.548717187</v>
       </c>
       <c r="C4" t="n">
         <v>332624.1818074201</v>
@@ -26427,34 +26427,34 @@
         <v>14040.01085717763</v>
       </c>
       <c r="F4" t="n">
-        <v>14091.87843567591</v>
+        <v>14091.87843567592</v>
       </c>
       <c r="G4" t="n">
-        <v>45229.37087109622</v>
+        <v>45229.37087109616</v>
       </c>
       <c r="H4" t="n">
-        <v>45229.37087109617</v>
+        <v>45229.37087109601</v>
       </c>
       <c r="I4" t="n">
         <v>45229.37087109617</v>
       </c>
       <c r="J4" t="n">
-        <v>45229.37087109618</v>
+        <v>45229.37087109615</v>
       </c>
       <c r="K4" t="n">
-        <v>45229.37087109615</v>
+        <v>45229.37087109616</v>
       </c>
       <c r="L4" t="n">
-        <v>45229.37087109614</v>
+        <v>45229.37087109616</v>
       </c>
       <c r="M4" t="n">
         <v>45229.37087109617</v>
       </c>
       <c r="N4" t="n">
-        <v>45229.37087109619</v>
+        <v>45229.37087109618</v>
       </c>
       <c r="O4" t="n">
-        <v>45229.37087109614</v>
+        <v>45229.37087109617</v>
       </c>
       <c r="P4" t="n">
         <v>45229.37087109617</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.88882425683</v>
+        <v>42410.88882425672</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26476,34 +26476,34 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139342</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390705</v>
+        <v>82183.39720390699</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215533</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215533</v>
       </c>
       <c r="I5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="J5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="K5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="L5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="M5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="N5" t="n">
         <v>95106.4341021553</v>
-      </c>
-      <c r="K5" t="n">
-        <v>95106.4341021553</v>
-      </c>
-      <c r="L5" t="n">
-        <v>95106.4341021553</v>
-      </c>
-      <c r="M5" t="n">
-        <v>95106.4341021553</v>
-      </c>
-      <c r="N5" t="n">
-        <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
         <v>95106.4341021553</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-489663.5036143415</v>
+        <v>-489663.5036143399</v>
       </c>
       <c r="C6" t="n">
-        <v>-182566.9653873816</v>
+        <v>-182566.9653873834</v>
       </c>
       <c r="D6" t="n">
         <v>-196596.3707583527</v>
       </c>
       <c r="E6" t="n">
-        <v>-591528.9496789724</v>
+        <v>-591876.5686087789</v>
       </c>
       <c r="F6" t="n">
-        <v>25991.82279781027</v>
+        <v>25736.19323385004</v>
       </c>
       <c r="G6" t="n">
-        <v>-37987.35591149988</v>
+        <v>-37987.35591150093</v>
       </c>
       <c r="H6" t="n">
-        <v>105976.7259860336</v>
+        <v>105976.7259860338</v>
       </c>
       <c r="I6" t="n">
-        <v>105976.7259860336</v>
+        <v>105976.7259860341</v>
       </c>
       <c r="J6" t="n">
-        <v>101212.1670172759</v>
+        <v>101212.1670172762</v>
       </c>
       <c r="K6" t="n">
-        <v>97847.77727112538</v>
+        <v>97847.77727112487</v>
       </c>
       <c r="L6" t="n">
-        <v>64916.52696408771</v>
+        <v>64916.52696408743</v>
       </c>
       <c r="M6" t="n">
-        <v>-73272.91895226805</v>
+        <v>-73272.91895226808</v>
       </c>
       <c r="N6" t="n">
-        <v>81427.57159990187</v>
+        <v>81427.57159990212</v>
       </c>
       <c r="O6" t="n">
-        <v>74542.1314172741</v>
+        <v>74542.13141727375</v>
       </c>
       <c r="P6" t="n">
         <v>105976.7259860338</v>
@@ -26698,31 +26698,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H2" t="n">
+        <v>31.61020235221376</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="K2" t="n">
         <v>31.61020235221392</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>31.61020235221392</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>31.61020235221407</v>
+      </c>
+      <c r="N2" t="n">
+        <v>31.61020235221397</v>
+      </c>
+      <c r="O2" t="n">
         <v>31.61020235221394</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221391</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221387</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.6102023522139</v>
       </c>
       <c r="P2" t="n">
         <v>31.61020235221394</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228101</v>
+        <v>352.1154025228085</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1171.567643808274</v>
+        <v>1171.567643808273</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703233</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26796,10 +26796,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022947</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461626</v>
+        <v>931.6319501461619</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26820,7 +26820,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228101</v>
+        <v>352.1154025228085</v>
       </c>
       <c r="C3" t="n">
-        <v>44.7445407447579</v>
+        <v>44.74454074475955</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
@@ -26969,19 +26969,19 @@
         <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
-        <v>81.79094321497541</v>
+        <v>81.79094321497496</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118491</v>
+        <v>106.5922268118502</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>-2.895769368638991e-13</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,46 +27009,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703233</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009229</v>
+        <v>31.58492398009347</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.288795277371</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438695</v>
+        <v>100.2304947438672</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427902</v>
+        <v>130.6231620427914</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703233</v>
+        <v>18.2100830470307</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009229</v>
+        <v>31.5849239800937</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.2887952773706</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438693</v>
+        <v>100.2304947438679</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427905</v>
+        <v>130.6231620427914</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703233</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009229</v>
+        <v>31.58492398009347</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.288795277371</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438695</v>
+        <v>100.2304947438672</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427902</v>
+        <v>130.6231620427914</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364.5237586164482</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>388.6659626946791</v>
+        <v>388.6659626946803</v>
       </c>
       <c r="G2" t="n">
-        <v>395.6771151614784</v>
+        <v>397.8477570606857</v>
       </c>
       <c r="H2" t="n">
         <v>324.9779101918004</v>
       </c>
       <c r="I2" t="n">
-        <v>155.9033104517702</v>
+        <v>137.6932274047393</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.95024697140707</v>
+        <v>60.95024697140748</v>
       </c>
       <c r="S2" t="n">
-        <v>176.7634676365427</v>
+        <v>176.7634676365428</v>
       </c>
       <c r="T2" t="n">
-        <v>216.8993262493832</v>
+        <v>216.8993262493833</v>
       </c>
       <c r="U2" t="n">
         <v>251.2324097633065</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>333.2015275695869</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>351.5210176314379</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>141.6056393075759</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.5861368634446</v>
       </c>
       <c r="H3" t="n">
-        <v>86.71066197856575</v>
+        <v>104.9207450255981</v>
       </c>
       <c r="I3" t="n">
-        <v>45.11007895717463</v>
+        <v>63.32016200420708</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>34.92373565171549</v>
+        <v>34.9237356517169</v>
       </c>
       <c r="S3" t="n">
-        <v>157.6151642200255</v>
+        <v>157.6151642200256</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1119545918172</v>
+        <v>197.1119545918173</v>
       </c>
       <c r="U3" t="n">
-        <v>209.8521132818483</v>
+        <v>225.8915544296744</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>187.5629021564463</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>187.4726127302732</v>
       </c>
     </row>
     <row r="4">
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>127.2109649759001</v>
       </c>
       <c r="G4" t="n">
         <v>167.3560171571881</v>
       </c>
       <c r="H4" t="n">
-        <v>140.5423401519527</v>
+        <v>156.5817812997788</v>
       </c>
       <c r="I4" t="n">
-        <v>136.3554298199557</v>
+        <v>136.3554298199558</v>
       </c>
       <c r="J4" t="n">
-        <v>48.46735248683844</v>
+        <v>48.46735248683866</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.78253442371771</v>
+        <v>32.9926174707503</v>
       </c>
       <c r="R4" t="n">
-        <v>148.7431818545823</v>
+        <v>148.7431818545824</v>
       </c>
       <c r="S4" t="n">
         <v>212.9509385839194</v>
       </c>
       <c r="T4" t="n">
-        <v>207.0224860667292</v>
+        <v>209.1931279659365</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2843950546034</v>
+        <v>268.0743120075722</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>268.3129152895586</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>207.499572342006</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>337.9269346308402</v>
       </c>
       <c r="F5" t="n">
         <v>357.0810387145868</v>
       </c>
       <c r="G5" t="n">
-        <v>369.7038852163564</v>
+        <v>363.9123136306534</v>
       </c>
       <c r="H5" t="n">
-        <v>273.3407321982346</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I5" t="n">
         <v>148.9685811771479</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>116.7381766227427</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>107.8500734282763</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>101.2097702038925</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.4898938890125</v>
       </c>
       <c r="H6" t="n">
-        <v>54.19623348224745</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>10.21152625211678</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>47.15831191777808</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>155.8274931817798</v>
+        <v>106.0324861546552</v>
       </c>
       <c r="T6" t="n">
-        <v>196.7240278659264</v>
+        <v>150.2278905670885</v>
       </c>
       <c r="U6" t="n">
         <v>225.8852226550407</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>117.4518140715032</v>
       </c>
       <c r="D7" t="n">
-        <v>98.82046599108773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2753302804353</v>
+        <v>166.1786783913564</v>
       </c>
       <c r="H7" t="n">
         <v>155.8644016137399</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R7" t="n">
-        <v>95.32019944182534</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S7" t="n">
-        <v>186.8893192793239</v>
+        <v>211.5447863772357</v>
       </c>
       <c r="T7" t="n">
         <v>224.8878160949084</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>236.7279913094664</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>175.9146483619125</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>270.6211815385569</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>351.1526508336461</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27910,16 +27910,16 @@
         <v>251.1925302541847</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>215.6395983452113</v>
       </c>
       <c r="W8" t="n">
-        <v>237.1283085924894</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>257.6184405535454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>337.3905894896997</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,10 +27932,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>73.95966795028299</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>35.3324054397151</v>
+        <v>139.4072749186431</v>
       </c>
       <c r="E9" t="n">
         <v>45.53242033047729</v>
@@ -27944,13 +27944,13 @@
         <v>32.95655226846023</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3194191323308</v>
+        <v>24.20675900740719</v>
       </c>
       <c r="H9" t="n">
         <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>54.13711731454486</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.57392307749219</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
@@ -28014,19 +28014,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>36.50281289328871</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>34.32130252164552</v>
       </c>
       <c r="F10" t="n">
         <v>33.3083878980076</v>
       </c>
       <c r="G10" t="n">
-        <v>55.01974984612798</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H10" t="n">
-        <v>154.5937101357652</v>
+        <v>102.7717683454414</v>
       </c>
       <c r="I10" t="n">
         <v>129.630951895051</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>174.4103382116674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>173.8877135987133</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605488</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605488</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221376</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221571</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221046</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221407</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221321</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.415539306624361</v>
+        <v>1.415539306624355</v>
       </c>
       <c r="H2" t="n">
-        <v>14.49689192396674</v>
+        <v>14.49689192396668</v>
       </c>
       <c r="I2" t="n">
-        <v>54.57257911863574</v>
+        <v>54.57257911863549</v>
       </c>
       <c r="J2" t="n">
-        <v>120.1421292256095</v>
+        <v>120.1421292256089</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0619080750187</v>
+        <v>180.0619080750179</v>
       </c>
       <c r="L2" t="n">
-        <v>223.3827191301241</v>
+        <v>223.382719130123</v>
       </c>
       <c r="M2" t="n">
-        <v>248.5563162743051</v>
+        <v>248.5563162743039</v>
       </c>
       <c r="N2" t="n">
-        <v>247.6231466436232</v>
+        <v>247.6231466436221</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490055</v>
+        <v>238.5024483490044</v>
       </c>
       <c r="P2" t="n">
-        <v>203.5563217167166</v>
+        <v>203.5563217167156</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.8623202982316</v>
+        <v>152.8623202982309</v>
       </c>
       <c r="R2" t="n">
-        <v>88.91887096974261</v>
+        <v>88.9188709697422</v>
       </c>
       <c r="S2" t="n">
-        <v>32.25660194970266</v>
+        <v>32.25660194970251</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196523314748145</v>
+        <v>6.196523314748116</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1132431445299489</v>
+        <v>0.1132431445299484</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7573802997660445</v>
+        <v>0.7573802997660409</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898378</v>
+        <v>7.314699210898344</v>
       </c>
       <c r="I3" t="n">
-        <v>26.07647084720811</v>
+        <v>26.07647084720799</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079108</v>
+        <v>71.55582911079075</v>
       </c>
       <c r="K3" t="n">
-        <v>122.3003091951161</v>
+        <v>122.3003091951155</v>
       </c>
       <c r="L3" t="n">
-        <v>156.7644628269065</v>
+        <v>156.7644628269053</v>
       </c>
       <c r="M3" t="n">
-        <v>160.3441169690506</v>
+        <v>160.3441169690495</v>
       </c>
       <c r="N3" t="n">
-        <v>149.5517951303656</v>
+        <v>138.164022792388</v>
       </c>
       <c r="O3" t="n">
-        <v>149.4185551534995</v>
+        <v>160.8063274914756</v>
       </c>
       <c r="P3" t="n">
-        <v>144.6264188211142</v>
+        <v>144.6264188211136</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645158</v>
+        <v>96.67893089645113</v>
       </c>
       <c r="R3" t="n">
-        <v>47.02401545389531</v>
+        <v>47.02401545389509</v>
       </c>
       <c r="S3" t="n">
-        <v>14.06800688381226</v>
+        <v>14.0680068838122</v>
       </c>
       <c r="T3" t="n">
-        <v>3.052774103004362</v>
+        <v>3.052774103004348</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04982765130039769</v>
+        <v>0.04982765130039745</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706412</v>
+        <v>0.6349622012706382</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660795</v>
+        <v>5.64539120766077</v>
       </c>
       <c r="I4" t="n">
-        <v>19.09504510730256</v>
+        <v>19.09504510730247</v>
       </c>
       <c r="J4" t="n">
-        <v>44.89182762983433</v>
+        <v>44.89182762983412</v>
       </c>
       <c r="K4" t="n">
-        <v>73.77106302035266</v>
+        <v>73.77106302035232</v>
       </c>
       <c r="L4" t="n">
-        <v>94.40156217800062</v>
+        <v>94.40156217800018</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099695</v>
+        <v>99.53321124099648</v>
       </c>
       <c r="N4" t="n">
-        <v>97.16653394535192</v>
+        <v>97.16653394535146</v>
       </c>
       <c r="O4" t="n">
-        <v>89.74902095778121</v>
+        <v>89.74902095778079</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205186006</v>
+        <v>76.79579205185971</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.16942578094433</v>
+        <v>53.16942578094408</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258718</v>
+        <v>28.55020952258705</v>
       </c>
       <c r="S4" t="n">
-        <v>11.0656594530529</v>
+        <v>11.06565945305285</v>
       </c>
       <c r="T4" t="n">
-        <v>2.713020314520012</v>
+        <v>2.713020314519999</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03463430188748956</v>
+        <v>0.03463430188748939</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31370,13 +31370,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>157.3072689909255</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
         <v>191.9290409491429</v>
       </c>
       <c r="N6" t="n">
-        <v>181.1367191104579</v>
+        <v>153.0991627102423</v>
       </c>
       <c r="O6" t="n">
         <v>192.3912514715691</v>
@@ -31610,10 +31610,10 @@
         <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>199.9629954989595</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>243.454372208257</v>
+        <v>189.1706736602745</v>
       </c>
       <c r="O9" t="n">
         <v>243.6589731628788</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601097</v>
+        <v>4.709819673601095</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226725</v>
+        <v>48.23444073226722</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665065</v>
+        <v>181.5753229665064</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223015</v>
+        <v>399.7400575223013</v>
       </c>
       <c r="K14" t="n">
-        <v>599.106724305836</v>
+        <v>599.1067243058358</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418057</v>
+        <v>743.2448681418055</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622092</v>
+        <v>827.0031237622088</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098284</v>
+        <v>840.3848989098281</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304574</v>
+        <v>793.5516295304571</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384303</v>
+        <v>677.2779563384299</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775908</v>
+        <v>508.6075392775906</v>
       </c>
       <c r="R14" t="n">
-        <v>295.8532100718452</v>
+        <v>295.8532100718451</v>
       </c>
       <c r="S14" t="n">
         <v>107.3250158121851</v>
       </c>
       <c r="T14" t="n">
-        <v>20.61723562118881</v>
+        <v>20.6172356211888</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3767855738880876</v>
+        <v>0.3767855738880875</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681947</v>
+        <v>2.519975686681946</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137565</v>
+        <v>24.33765992137564</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146179</v>
+        <v>86.76232079146176</v>
       </c>
       <c r="J15" t="n">
-        <v>223.3837766951979</v>
+        <v>238.082439766736</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>406.9208107744264</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332886</v>
+        <v>547.1552472332885</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755091</v>
+        <v>343.9462918947561</v>
       </c>
       <c r="N15" t="n">
-        <v>655.4036765111965</v>
+        <v>655.4036765111962</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062965</v>
+        <v>599.5663205062962</v>
       </c>
       <c r="P15" t="n">
-        <v>481.2048309068361</v>
+        <v>481.2048309068359</v>
       </c>
       <c r="Q15" t="n">
-        <v>321.6726858999623</v>
+        <v>321.6726858999622</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>156.4595430731125</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762298</v>
+        <v>46.80744312762296</v>
       </c>
       <c r="T15" t="n">
-        <v>10.1572704213189</v>
+        <v>10.15727042131889</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1657878741238124</v>
+        <v>0.1657878741238123</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244428</v>
+        <v>2.112662964244427</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482775</v>
+        <v>18.78349435482774</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291426</v>
+        <v>63.53353714291424</v>
       </c>
       <c r="J16" t="n">
         <v>149.365271572081</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913071</v>
+        <v>245.453024391307</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023034</v>
+        <v>314.0953647023033</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587879</v>
+        <v>331.1695226587877</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102407</v>
+        <v>323.2950516102406</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824761</v>
+        <v>298.615306982476</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118896</v>
+        <v>255.5169825118895</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.9067142150493</v>
+        <v>176.9067142150492</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320852</v>
+        <v>94.99300928320848</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869606</v>
+        <v>36.81795365869605</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408007</v>
+        <v>9.026832665408003</v>
       </c>
       <c r="U16" t="n">
         <v>0.1152361616860598</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171636</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L17" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829625</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R17" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K18" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155584</v>
+        <v>154.4789322578934</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879672</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160633</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578287</v>
       </c>
       <c r="P18" t="n">
-        <v>215.4343416764904</v>
+        <v>524.9860796892353</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T18" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I20" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171636</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L20" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829625</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R20" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S20" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L21" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155586</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879672</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160628</v>
+        <v>272.5760810583981</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578287</v>
       </c>
       <c r="P21" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892353</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T21" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H23" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I23" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32740,7 +32740,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>696.597129487967</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N24" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T24" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,10 +32865,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
         <v>342.6725659692048</v>
@@ -32880,22 +32880,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P25" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33260,13 +33260,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L30" t="n">
-        <v>593.4871659531818</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
         <v>696.597129487967</v>
@@ -33275,10 +33275,10 @@
         <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -34208,10 +34208,10 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L42" t="n">
         <v>596.9368339155585</v>
@@ -34220,19 +34220,19 @@
         <v>696.597129487967</v>
       </c>
       <c r="N42" t="n">
-        <v>475.6116682468177</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34451,25 +34451,25 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M45" t="n">
-        <v>696.597129487967</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N45" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>434.0683069289803</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486998</v>
@@ -34702,19 +34702,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>17.47432211583911</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21008304703233</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21008304703233</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="O2" t="n">
-        <v>18.21008304703233</v>
+        <v>17.47432211583798</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.21008304703233</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="M3" t="n">
-        <v>18.21008304703233</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21008304703233</v>
+        <v>6.822310709054663</v>
       </c>
       <c r="O3" t="n">
-        <v>6.822310709055115</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="P3" t="n">
-        <v>10.652011406784</v>
+        <v>10.65201140678332</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.47432211583798</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="M4" t="n">
-        <v>18.21008304703233</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="N4" t="n">
-        <v>18.21008304703233</v>
+        <v>18.21008304703115</v>
       </c>
       <c r="O4" t="n">
-        <v>17.47432211583911</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.21008304703233</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>42.86418322768704</v>
       </c>
       <c r="L5" t="n">
-        <v>47.78308755128119</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M5" t="n">
         <v>49.79500702712463</v>
@@ -34948,7 +34948,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O5" t="n">
-        <v>49.79500702712463</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>18.75288921105129</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="N6" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690899</v>
       </c>
       <c r="O6" t="n">
         <v>49.79500702712463</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>47.78308755128119</v>
       </c>
       <c r="L7" t="n">
-        <v>47.78308755128119</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="M7" t="n">
         <v>49.79500702712463</v>
@@ -35106,7 +35106,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
+        <v>112.1126601249237</v>
+      </c>
+      <c r="N9" t="n">
         <v>57.82896157694119</v>
-      </c>
-      <c r="N9" t="n">
-        <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
         <v>101.0627287184343</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>77.4806606383279</v>
+        <v>6.464231591769972</v>
       </c>
       <c r="L10" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="N10" t="n">
-        <v>41.0962310783657</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="P10" t="n">
         <v>101.1186240836619</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956152</v>
+        <v>218.694152995615</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608554</v>
+        <v>379.0168732608552</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718184</v>
+        <v>507.4784531718182</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349365</v>
+        <v>596.6568905349361</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132375</v>
+        <v>610.9718353132371</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087706</v>
+        <v>563.4534181087704</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831607</v>
+        <v>446.0449605831604</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031413</v>
+        <v>286.3018494031411</v>
       </c>
       <c r="R14" t="n">
-        <v>80.26767225771306</v>
+        <v>80.26767225771295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>96.54615002853123</v>
+        <v>111.2448131000693</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>269.0793718000674</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534144</v>
+        <v>408.6008674534143</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534907</v>
+        <v>201.8122579727378</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278632</v>
+        <v>524.0619644278629</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618521</v>
+        <v>456.9700760618517</v>
       </c>
       <c r="P15" t="n">
-        <v>347.2304234925058</v>
+        <v>347.2304234925057</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.6909118139408</v>
+        <v>181.6909118139407</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.78003910914853</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540827</v>
+        <v>56.00609145540821</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1835325654238</v>
+        <v>223.1835325654241</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626195</v>
+        <v>341.6853899626194</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206284</v>
+        <v>370.7533996206283</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894693</v>
+        <v>367.4272239894692</v>
       </c>
       <c r="O16" t="n">
-        <v>323.2004348965158</v>
+        <v>323.2004348965157</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767831</v>
+        <v>252.795541776783</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335495</v>
+        <v>90.74467096335486</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P17" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K18" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356842</v>
+        <v>15.92455247801921</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327296</v>
+        <v>583.69227063273</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133842</v>
       </c>
       <c r="P18" t="n">
-        <v>81.45993426216013</v>
+        <v>391.0116722749051</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K19" t="n">
         <v>277.1256801414978</v>
@@ -36051,7 +36051,7 @@
         <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908713</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P20" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L21" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356844</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327296</v>
+        <v>141.2343689750648</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133842</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749051</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
         <v>107.1851555440239</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659486</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,16 +36516,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
@@ -36616,7 +36616,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440229</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L30" t="n">
-        <v>454.9327861733077</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
@@ -36923,10 +36923,10 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
         <v>428.4516387010908</v>
@@ -37227,16 +37227,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817366</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
         <v>381.9794231908712</v>
@@ -37327,7 +37327,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R35" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440219</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193524</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K40" t="n">
         <v>277.1256801414978</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L42" t="n">
         <v>458.3824541356843</v>
@@ -37868,19 +37868,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>344.2699561634844</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
@@ -38099,25 +38099,25 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M45" t="n">
-        <v>554.4630955659486</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N45" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>291.4720624845359</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
